--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowar\Desktop\biosketch\2021_01_WJH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowar\Documents\biostatistics\NIHbiosketch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEA48D-D78C-4499-A06E-07D0070135E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD65D9A-61A6-4707-85BD-65D975766EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="3045" windowWidth="14820" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>section</t>
   </si>
@@ -200,15 +200,6 @@
     <t>09/30/2017-09/29/2021</t>
   </si>
   <si>
-    <t>Emily Kroshus</t>
-  </si>
-  <si>
-    <t>U01CE002880</t>
-  </si>
-  <si>
-    <t>One Team: Changing the culture of youth sport</t>
-  </si>
-  <si>
     <t>Sports-related concussion in youth is increasingly being recognized as a public health concern. We propose an intervention that will utilize safety huddles to shift the culture of youth sport. At the completion of this research, we will have an intervention that will shift the culture of safety in youth sport and that can reach all youth sport stakeholders, including those in low resource communities.</t>
   </si>
   <si>
@@ -221,16 +212,25 @@
     <t>09/21/2017-08/31/2020</t>
   </si>
   <si>
-    <t>R21NR017312</t>
-  </si>
-  <si>
-    <t>Tonya Palermo</t>
-  </si>
-  <si>
-    <t>Role of sleep deficiency in self-management of pediatric chronic pain</t>
-  </si>
-  <si>
     <t>The objective of this application is to characterize how sleep deficiency influences youths’ ability to engage with, implement, and benefit from a pain self-management intervention.</t>
+  </si>
+  <si>
+    <t>name 1</t>
+  </si>
+  <si>
+    <t>name 2</t>
+  </si>
+  <si>
+    <t>name 3</t>
+  </si>
+  <si>
+    <t>Title 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 2 </t>
+  </si>
+  <si>
+    <t>Title 3</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1164,7 @@
         <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -1178,22 +1178,22 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,20 +1206,20 @@
       <c r="C3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
+      <c r="D3" s="3">
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,22 +1230,22 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowar\Documents\biostatistics\NIHbiosketch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowar\Desktop\biosketch\2021_01_WJH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD65D9A-61A6-4707-85BD-65D975766EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEA48D-D78C-4499-A06E-07D0070135E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="3045" windowWidth="14820" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>section</t>
   </si>
@@ -200,6 +200,15 @@
     <t>09/30/2017-09/29/2021</t>
   </si>
   <si>
+    <t>Emily Kroshus</t>
+  </si>
+  <si>
+    <t>U01CE002880</t>
+  </si>
+  <si>
+    <t>One Team: Changing the culture of youth sport</t>
+  </si>
+  <si>
     <t>Sports-related concussion in youth is increasingly being recognized as a public health concern. We propose an intervention that will utilize safety huddles to shift the culture of youth sport. At the completion of this research, we will have an intervention that will shift the culture of safety in youth sport and that can reach all youth sport stakeholders, including those in low resource communities.</t>
   </si>
   <si>
@@ -212,25 +221,16 @@
     <t>09/21/2017-08/31/2020</t>
   </si>
   <si>
+    <t>R21NR017312</t>
+  </si>
+  <si>
+    <t>Tonya Palermo</t>
+  </si>
+  <si>
+    <t>Role of sleep deficiency in self-management of pediatric chronic pain</t>
+  </si>
+  <si>
     <t>The objective of this application is to characterize how sleep deficiency influences youths’ ability to engage with, implement, and benefit from a pain self-management intervention.</t>
-  </si>
-  <si>
-    <t>name 1</t>
-  </si>
-  <si>
-    <t>name 2</t>
-  </si>
-  <si>
-    <t>name 3</t>
-  </si>
-  <si>
-    <t>Title 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title 2 </t>
-  </si>
-  <si>
-    <t>Title 3</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1164,7 @@
         <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -1178,22 +1178,22 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100</v>
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,20 +1206,20 @@
       <c r="C3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="3">
-        <v>101</v>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,22 +1230,22 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3">
-        <v>102</v>
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/mydata.xlsx
+++ b/mydata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowar\Desktop\biosketch\2021_01_WJH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowar\Documents\GitHub\NIHbiosketch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBEA48D-D78C-4499-A06E-07D0070135E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4382D22-0D23-4B37-A28C-58041D782D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="3045" windowWidth="14820" windowHeight="9645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="2985" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>section</t>
   </si>
@@ -50,48 +50,9 @@
     <t>honors</t>
   </si>
   <si>
-    <t>Global Director of Biostatistics and Data Analytics, Health Economics and Outcomes Research, ConcertAI, Boston, MA</t>
-  </si>
-  <si>
-    <t>Director of Biostatistics and Data Management, Center for Outcomes Research and Evaluation, Atrium Health, Charlotte, NC</t>
-  </si>
-  <si>
-    <t>Director of Biostatistics, Epidemiology, Econometrics, and Programming Core, Center for Child Health, Behavior and Development, Seattle Children’s Research Inst., Seatle, WA</t>
-  </si>
-  <si>
-    <t>Faculty Research Methodologist, Inst. for Social Science Research, University of Massachusetts, Amherst, MA</t>
-  </si>
-  <si>
-    <t>Director of Research and Evaluation, Maryland Ctr. for Developmental Disabilities Kennedy Krieger Institute, Baltimore, MD</t>
-  </si>
-  <si>
-    <t>Dissertation Award from the Society for Multivariate Experimental Psychology</t>
-  </si>
-  <si>
-    <t>Patterson Decade Award from Lyon College</t>
-  </si>
-  <si>
-    <t>Best Empirical Research Paper Award from the Association for Psychological and Educational Research in Kansas</t>
-  </si>
-  <si>
-    <t>National Science Foundation REU program recipient with international dimension</t>
-  </si>
-  <si>
     <t>other_exp</t>
   </si>
   <si>
-    <t>Member, Psi Chi (534155)</t>
-  </si>
-  <si>
-    <t>Member, Association for Psychological Science (73679)</t>
-  </si>
-  <si>
-    <t>Director of Research, Patient Centered Outcomes, Open Health, Bethesda, MD</t>
-  </si>
-  <si>
-    <t>Principal Biostatistician, Biostatistics Epidemiology and Analytics in Research, Seattle Children’s Research Inst., Seattle, WA</t>
-  </si>
-  <si>
     <t>Member, American Psychological Association</t>
   </si>
   <si>
@@ -110,18 +71,6 @@
     <t>Member, American Evaluation Association</t>
   </si>
   <si>
-    <t>Statistical Manager, Statistical Center for HIV/AIDS Research and Prevention (SCHARP), Fred Hutchinson Cancer Research Center, Seattle, WA</t>
-  </si>
-  <si>
-    <t>Visiting Assistant Professor, Dept. of Public Health, Bloomberg School of Public Health, Johns Hopkins University, Baltimore, MD</t>
-  </si>
-  <si>
-    <t>Affiliated Faculty Member, Wendy Klag Center for Autism and Developmental Disabilities, Johns Hopkins University, Baltimore, MD</t>
-  </si>
-  <si>
-    <t>Senior Research Data Analyst, Biostatistics, Epidemiology and Data Management Core, Johns Hopkins University, Bayview, MD</t>
-  </si>
-  <si>
     <t>Member, Society for Research on Adolescence</t>
   </si>
   <si>
@@ -140,45 +89,24 @@
     <t>YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Kansas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawrence, KS </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Quantitative Psychology </t>
   </si>
   <si>
     <t xml:space="preserve">PhD </t>
   </si>
   <si>
-    <t xml:space="preserve">Emporia State University </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emporia, KS </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Experimental Psychology </t>
   </si>
   <si>
     <t xml:space="preserve">MS </t>
   </si>
   <si>
-    <t xml:space="preserve">Lyon College </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batesville, AR </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Psychology </t>
   </si>
   <si>
     <t xml:space="preserve">BA </t>
   </si>
   <si>
-    <t>Adjunct Researcher, Juniper Gardens Children's Project, The University of Kansas, Lawrence, KS</t>
-  </si>
-  <si>
     <t>ongoing</t>
   </si>
   <si>
@@ -200,15 +128,6 @@
     <t>09/30/2017-09/29/2021</t>
   </si>
   <si>
-    <t>Emily Kroshus</t>
-  </si>
-  <si>
-    <t>U01CE002880</t>
-  </si>
-  <si>
-    <t>One Team: Changing the culture of youth sport</t>
-  </si>
-  <si>
     <t>Sports-related concussion in youth is increasingly being recognized as a public health concern. We propose an intervention that will utilize safety huddles to shift the culture of youth sport. At the completion of this research, we will have an intervention that will shift the culture of safety in youth sport and that can reach all youth sport stakeholders, including those in low resource communities.</t>
   </si>
   <si>
@@ -221,16 +140,52 @@
     <t>09/21/2017-08/31/2020</t>
   </si>
   <si>
-    <t>R21NR017312</t>
-  </si>
-  <si>
-    <t>Tonya Palermo</t>
-  </si>
-  <si>
-    <t>Role of sleep deficiency in self-management of pediatric chronic pain</t>
-  </si>
-  <si>
     <t>The objective of this application is to characterize how sleep deficiency influences youths’ ability to engage with, implement, and benefit from a pain self-management intervention.</t>
+  </si>
+  <si>
+    <t>name 1</t>
+  </si>
+  <si>
+    <t>name 2</t>
+  </si>
+  <si>
+    <t>name 3</t>
+  </si>
+  <si>
+    <t>Title 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title 2 </t>
+  </si>
+  <si>
+    <t>Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member, Association for Psychological Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member, Psi Chi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decade Award </t>
+  </si>
+  <si>
+    <t>Dissertation Award</t>
+  </si>
+  <si>
+    <t>National Science Foundation award recipient with international dimension</t>
+  </si>
+  <si>
+    <t>Position Title, Department Name, Organization Name, Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Research Paper Award </t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>University Name</t>
   </si>
 </sst>
 </file>
@@ -595,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,7 +591,7 @@
         <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -653,7 +608,7 @@
         <v>2015</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -670,7 +625,7 @@
         <v>2015</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -687,7 +642,7 @@
         <v>2015</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,7 +659,7 @@
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,7 +676,7 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,7 +693,7 @@
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,7 +710,7 @@
         <v>2019</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,7 +727,7 @@
         <v>2021</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -789,7 +744,7 @@
         <v>2022</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -817,7 +772,7 @@
         <v>2022</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,7 +786,7 @@
         <v>2003</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,7 +800,7 @@
         <v>2006</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,7 +814,7 @@
         <v>2012</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,7 +828,7 @@
         <v>2014</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,14 +836,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <v>2006</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,14 +851,14 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <v>2011</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2010</v>
@@ -920,7 +875,7 @@
         <v>2011</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>2010</v>
@@ -937,7 +892,7 @@
         <v>2011</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>2012</v>
@@ -954,7 +909,7 @@
         <v>2013</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2012</v>
@@ -971,7 +926,7 @@
         <v>2015</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>2012</v>
@@ -988,7 +943,7 @@
         <v>2015</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>2014</v>
@@ -1005,7 +960,7 @@
         <v>2015</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2014</v>
@@ -1022,7 +977,7 @@
         <v>2015</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +991,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1049,19 +1004,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,16 +1024,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3">
         <v>2012</v>
@@ -1089,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <v>2006</v>
@@ -1109,16 +1064,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>2004</v>
@@ -1134,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F455114-B554-4B0E-97F6-79E82B3FC0EC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1152,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -1175,25 +1130,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,25 +1156,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,25 +1182,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>102</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1253,4 +1208,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{046da4d3-ba20-4986-879c-49e262eff745}" enabled="1" method="Standard" siteId="{9f693e63-5e9e-4ced-98a4-8ab28f9d0c2d}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>